--- a/EMPLOYEE-UPLOAD.xlsx
+++ b/EMPLOYEE-UPLOAD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t xml:space="preserve">FIRST NAME</t>
   </si>
@@ -29,36 +29,6 @@
   </si>
   <si>
     <t xml:space="preserve">N NUMBER</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behrad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">behmardi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n051386</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">test6</t>
   </si>
 </sst>
 </file>
@@ -430,10 +400,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="A2:C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -455,94 +425,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/EMPLOYEE-UPLOAD.xlsx
+++ b/EMPLOYEE-UPLOAD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">FIRST NAME</t>
   </si>
@@ -29,6 +29,12 @@
   </si>
   <si>
     <t xml:space="preserve">N NUMBER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bbbbbbb</t>
   </si>
 </sst>
 </file>
@@ -400,10 +406,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="A2:C9"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -425,7 +431,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="2" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>35345345</v>
+      </c>
+    </row>
     <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/EMPLOYEE-UPLOAD.xlsx
+++ b/EMPLOYEE-UPLOAD.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve">FIRST NAME</t>
   </si>
@@ -35,6 +35,15 @@
   </si>
   <si>
     <t xml:space="preserve">bbbbbbb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">miguel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bonilla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ggggg</t>
   </si>
 </sst>
 </file>
@@ -406,10 +415,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -442,7 +451,17 @@
         <v>35345345</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="3" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="4" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="5" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
